--- a/Platillas de Valoracion/Primeras Valoraciones/Minorista/PLANTILLA DE VALORACIÓN 2020- Autozone 2021.xlsx
+++ b/Platillas de Valoracion/Primeras Valoraciones/Minorista/PLANTILLA DE VALORACIÓN 2020- Autozone 2021.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5541A46-9312-6349-811E-68CE92469841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E43A69-7584-0446-AD6E-3E98E9BA42A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11560" yWindow="1540" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.Income statement" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="151">
   <si>
     <t>Depreciation &amp; Amortization Expense</t>
   </si>
@@ -677,6 +677,244 @@
   <si>
     <t>Deuda neta/equity</t>
   </si>
+  <si>
+    <t>SubSectores</t>
+  </si>
+  <si>
+    <t>Datos Genberales de Referencia sin tomar en cuenta el Sector</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Si crece &lt; 5% en EPS O FCF</t>
+  </si>
+  <si>
+    <t>Si crece &gt; 5%  Y &lt; 10%en EPS O FCF</t>
+  </si>
+  <si>
+    <t>&lt; 14 X</t>
+  </si>
+  <si>
+    <t>Si crece &gt; 10%  Y &lt; 20% en EPS O FCF</t>
+  </si>
+  <si>
+    <t>Margenes de Beneficios (General en Consumo)</t>
+  </si>
+  <si>
+    <t>Si crece &gt; 20%  Y &lt; 30% en EPS O FCF</t>
+  </si>
+  <si>
+    <t>EBIT generalmete &gt;. 14%</t>
+  </si>
+  <si>
+    <t>R O C E</t>
+  </si>
+  <si>
+    <t>MULTIPLOS RAZONABLES</t>
+  </si>
+  <si>
+    <t>SI NO CRECE</t>
+  </si>
+  <si>
+    <t>SI CRECE</t>
+  </si>
+  <si>
+    <t>SiN GOODWILL</t>
+  </si>
+  <si>
+    <t>13% - 16%</t>
+  </si>
+  <si>
+    <t>(EN GENERAL)</t>
+  </si>
+  <si>
+    <t>PER.</t>
+  </si>
+  <si>
+    <t>20X</t>
+  </si>
+  <si>
+    <t>30X</t>
+  </si>
+  <si>
+    <t>CON GOODWILL</t>
+  </si>
+  <si>
+    <t>10% - 13%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV / EBITDA  </t>
+  </si>
+  <si>
+    <t>12X</t>
+  </si>
+  <si>
+    <t>EV / EBIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D E U D A </t>
+  </si>
+  <si>
+    <t>SI NO SUFRE EN CRISIS</t>
+  </si>
+  <si>
+    <t>DEUDA / EBITDA</t>
+  </si>
+  <si>
+    <t>&lt;= 3 Veces</t>
+  </si>
+  <si>
+    <t>(ESTO NO APLICA A BACNOS NI REITS)</t>
+  </si>
+  <si>
+    <t>APALANCAMIENTO</t>
+  </si>
+  <si>
+    <t>&lt; 2X</t>
+  </si>
+  <si>
+    <t>&lt;= 4X</t>
+  </si>
+  <si>
+    <t>SI SUFRE EN CRISIS</t>
+  </si>
+  <si>
+    <t>&lt;= 1 Veces</t>
+  </si>
+  <si>
+    <t>IMPORTANTE en MINORISTA</t>
+  </si>
+  <si>
+    <t>Las Minoristas NO CREAN PRODUCTOS. Solo los vendenm</t>
+  </si>
+  <si>
+    <t>Pueden ser Online (amazon), Mixtas(AUTOZONE),
+Fisicas (Macy's)</t>
+  </si>
+  <si>
+    <t>Automotriz (autozone, autopartes)</t>
+  </si>
+  <si>
+    <t>Discounters (Dollar Tree)</t>
+  </si>
+  <si>
+    <t>Tiendas Departamentales (Felix, Macy's)</t>
+  </si>
+  <si>
+    <t>Decoracion</t>
+  </si>
+  <si>
+    <t>Mira el % de tiendas que posee (mejor que las posea a que las alquile)</t>
+  </si>
+  <si>
+    <t>Faciles de Entender // Pueden pasar de Moda Ojo pueden caer muy rapido</t>
+  </si>
+  <si>
+    <t>Mira sus Posibilidades de Expansion</t>
+  </si>
+  <si>
+    <t>Baja Ciclicidad , Generalmente alto ROE</t>
+  </si>
+  <si>
+    <t>Ojo si la afecta NEGOCIO ONLINE y el Internet</t>
+  </si>
+  <si>
+    <t>Vigila Ventas Comparables(Same Store Sales o Like for Like) o Organic Grow</t>
+  </si>
+  <si>
+    <t>MUCHA CALIDAD</t>
+  </si>
+  <si>
+    <t>NORMALES</t>
+  </si>
+  <si>
+    <t>17X</t>
+  </si>
+  <si>
+    <t>14X</t>
+  </si>
+  <si>
+    <t>22X</t>
+  </si>
+  <si>
+    <t>7X</t>
+  </si>
+  <si>
+    <t>15X</t>
+  </si>
+  <si>
+    <t>6X</t>
+  </si>
+  <si>
+    <t>8X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restaurantes (McDonal,Burger) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(10-20% EBIT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Moda (Inditex, H&amp;M) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(10-20% EBIT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supermercados (Carrefour,Sprout) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>(3-10% EBIT)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;7X</t>
+  </si>
+  <si>
+    <t>&lt;10X</t>
+  </si>
+  <si>
+    <t>&lt; 12X</t>
+  </si>
+  <si>
+    <t>&lt;15X</t>
+  </si>
+  <si>
+    <t>&lt;10 X</t>
+  </si>
+  <si>
+    <t>&lt; 12 X</t>
+  </si>
+  <si>
+    <t>&lt; 16 X</t>
+  </si>
 </sst>
 </file>
 
@@ -689,9 +927,16 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-[$$-2809]* #,##0_-;\-[$$-2809]* #,##0_-;_-[$$-2809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -805,13 +1050,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -873,12 +1111,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -895,8 +1127,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,8 +1212,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1441,27 +1768,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1476,26 +1818,26 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,37 +1852,37 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,17 +1903,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1625,16 +1967,16 @@
     <xf numFmtId="2" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1643,19 +1985,13 @@
     <xf numFmtId="2" fontId="20" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,10 +2000,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1685,10 +2021,10 @@
     <xf numFmtId="2" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1703,10 +2039,10 @@
     <xf numFmtId="2" fontId="17" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1715,16 +2051,16 @@
     <xf numFmtId="38" fontId="17" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="16" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1733,40 +2069,31 @@
     <xf numFmtId="38" fontId="17" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1779,25 +2106,25 @@
     <xf numFmtId="2" fontId="19" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,19 +2133,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,7 +2166,7 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1848,13 +2175,13 @@
     <xf numFmtId="165" fontId="17" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,13 +2202,13 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +2229,7 @@
     <xf numFmtId="40" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1920,7 +2247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1933,38 +2260,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1979,10 +2306,10 @@
     <xf numFmtId="40" fontId="17" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="16" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2012,13 +2339,13 @@
     <xf numFmtId="40" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2039,10 +2366,10 @@
     <xf numFmtId="40" fontId="17" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2063,7 +2390,7 @@
     <xf numFmtId="2" fontId="19" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,7 +2403,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2085,32 +2412,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2167,7 +2494,7 @@
     <xf numFmtId="38" fontId="17" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2176,38 +2503,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2254,80 +2575,80 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2343,6 +2664,202 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2503,7 +3020,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>223096</xdr:colOff>
+      <xdr:colOff>223095</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>97418</xdr:rowOff>
     </xdr:to>
@@ -3115,136 +3632,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S46"/>
+  <dimension ref="B1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="31" customWidth="1"/>
-    <col min="3" max="14" width="11" style="73" customWidth="1"/>
+    <col min="2" max="2" width="48.83203125" style="31" customWidth="1"/>
+    <col min="3" max="4" width="11" style="71" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="71" customWidth="1"/>
+    <col min="6" max="14" width="11" style="71" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="42" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="267"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="272"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="265"/>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="268"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="274"/>
-      <c r="G3" s="274"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="274"/>
-      <c r="L3" s="274"/>
-      <c r="M3" s="274"/>
-      <c r="N3" s="275"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
+      <c r="K3" s="267"/>
+      <c r="L3" s="267"/>
+      <c r="M3" s="267"/>
+      <c r="N3" s="268"/>
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="268"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274"/>
-      <c r="F4" s="274"/>
-      <c r="G4" s="274"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="274"/>
-      <c r="J4" s="274"/>
-      <c r="K4" s="274"/>
-      <c r="L4" s="274"/>
-      <c r="M4" s="274"/>
-      <c r="N4" s="275"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="266"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="268"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="268"/>
-      <c r="C5" s="273"/>
-      <c r="D5" s="274"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="274"/>
-      <c r="G5" s="274"/>
-      <c r="H5" s="274"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="274"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="274"/>
-      <c r="N5" s="275"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="267"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="268"/>
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="268"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="274"/>
-      <c r="J6" s="274"/>
-      <c r="K6" s="274"/>
-      <c r="L6" s="274"/>
-      <c r="M6" s="274"/>
-      <c r="N6" s="275"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="266"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="267"/>
+      <c r="K6" s="267"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="268"/>
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="268"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="277"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="278"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="269"/>
+      <c r="B8" s="262"/>
       <c r="C8" s="32">
         <v>2014</v>
       </c>
@@ -3263,22 +3782,22 @@
       <c r="H8" s="33">
         <v>2019</v>
       </c>
-      <c r="I8" s="177">
+      <c r="I8" s="172">
         <v>2020</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="100">
         <v>2021</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="100">
         <v>2022</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="100">
         <v>2023</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="100">
         <v>2024</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="101">
         <v>2025</v>
       </c>
       <c r="O8" s="14"/>
@@ -3289,18 +3808,18 @@
       <c r="B9" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="77"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
@@ -3309,44 +3828,44 @@
       <c r="B10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="243">
+      <c r="C10" s="238">
         <v>9475</v>
       </c>
-      <c r="D10" s="243">
+      <c r="D10" s="238">
         <v>10187</v>
       </c>
-      <c r="E10" s="243">
+      <c r="E10" s="238">
         <v>10635</v>
       </c>
-      <c r="F10" s="243">
+      <c r="F10" s="238">
         <v>10888</v>
       </c>
-      <c r="G10" s="243">
+      <c r="G10" s="238">
         <v>11221</v>
       </c>
-      <c r="H10" s="248">
+      <c r="H10" s="243">
         <v>11863</v>
       </c>
-      <c r="I10" s="181">
+      <c r="I10" s="176">
         <v>12632</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="76">
         <f t="shared" ref="J10:N10" si="0">(I10*$P$11)+I10</f>
         <v>13263.6</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="76">
         <f t="shared" si="0"/>
         <v>13926.78</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="76">
         <f t="shared" si="0"/>
         <v>14623.119000000001</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="76">
         <f t="shared" si="0"/>
         <v>15354.274950000001</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="77">
         <f t="shared" si="0"/>
         <v>16121.988697500001</v>
       </c>
@@ -3355,54 +3874,54 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="205" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="81" t="e">
+      <c r="C11" s="79" t="e">
         <f>(C10-#REF!)/#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="79">
         <f t="shared" ref="D11" si="1">(D10-C10)/C10</f>
         <v>7.5145118733509236E-2</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="79">
         <f t="shared" ref="E11" si="2">(E10-D10)/D10</f>
         <v>4.3977618533424953E-2</v>
       </c>
-      <c r="F11" s="81">
+      <c r="F11" s="79">
         <f t="shared" ref="F11" si="3">(F10-E10)/E10</f>
         <v>2.3789374706158908E-2</v>
       </c>
-      <c r="G11" s="81">
+      <c r="G11" s="79">
         <f t="shared" ref="G11" si="4">(G10-F10)/F10</f>
         <v>3.0584129316678914E-2</v>
       </c>
-      <c r="H11" s="81">
+      <c r="H11" s="79">
         <f t="shared" ref="H11:I11" si="5">(H10-G10)/G10</f>
         <v>5.7214152036360398E-2</v>
       </c>
-      <c r="I11" s="81">
+      <c r="I11" s="79">
         <f t="shared" si="5"/>
         <v>6.482340048891512E-2</v>
       </c>
-      <c r="J11" s="190">
+      <c r="J11" s="185">
         <f t="shared" ref="J11:N11" si="6">$P$11</f>
         <v>0.05</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="79">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="79">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="M11" s="81">
+      <c r="M11" s="79">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N11" s="80">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
@@ -3416,54 +3935,54 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="83">
         <f t="shared" ref="C12:I12" si="7">C15+C14</f>
         <v>2081</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="83">
         <f t="shared" si="7"/>
         <v>2222</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="83">
         <f t="shared" si="7"/>
         <v>2357</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="83">
         <f t="shared" si="7"/>
         <v>2403</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="83">
         <f t="shared" si="7"/>
         <v>2155</v>
       </c>
-      <c r="H12" s="206">
+      <c r="H12" s="201">
         <f t="shared" si="7"/>
         <v>2585</v>
       </c>
-      <c r="I12" s="206">
+      <c r="I12" s="201">
         <f t="shared" si="7"/>
         <v>2815</v>
       </c>
-      <c r="J12" s="253">
+      <c r="J12" s="248">
         <f t="shared" ref="J12:N12" si="8">J15+J14</f>
         <v>2804.2979999999998</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="83">
         <f t="shared" si="8"/>
         <v>2944.5129000000002</v>
       </c>
-      <c r="L12" s="85">
+      <c r="L12" s="83">
         <f t="shared" si="8"/>
         <v>3091.7385450000002</v>
       </c>
-      <c r="M12" s="85">
+      <c r="M12" s="83">
         <f t="shared" si="8"/>
         <v>3246.3254722500001</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="84">
         <f t="shared" si="8"/>
         <v>3408.6417458625001</v>
       </c>
@@ -3472,54 +3991,54 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="79">
         <f>(C12/C10)</f>
         <v>0.21963060686015831</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="79">
         <f>(D12/D10)</f>
         <v>0.21812113477962108</v>
       </c>
-      <c r="E13" s="81">
+      <c r="E13" s="79">
         <f>(E12/E10)</f>
         <v>0.22162670427832629</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="79">
         <f>(F12/F10)</f>
         <v>0.22070168993387215</v>
       </c>
-      <c r="G13" s="81">
+      <c r="G13" s="79">
         <f>(G12/G10)</f>
         <v>0.1920506193743873</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="79">
         <f t="shared" ref="H13:I13" si="9">(H12/H10)</f>
         <v>0.21790440866559893</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="80">
         <f t="shared" si="9"/>
         <v>0.22284673844205194</v>
       </c>
-      <c r="J13" s="190">
+      <c r="J13" s="185">
         <f>J12/J10</f>
         <v>0.2114281190626979</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K13" s="79">
         <f>K12/K10</f>
         <v>0.2114281190626979</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="79">
         <f>L12/L10</f>
         <v>0.2114281190626979</v>
       </c>
-      <c r="M13" s="81">
+      <c r="M13" s="79">
         <f>M12/M10</f>
         <v>0.2114281190626979</v>
       </c>
-      <c r="N13" s="82">
+      <c r="N13" s="80">
         <f>N12/N10</f>
         <v>0.2114281190626979</v>
       </c>
@@ -3528,51 +4047,51 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="243">
+      <c r="C14" s="238">
         <v>251</v>
       </c>
-      <c r="D14" s="243">
+      <c r="D14" s="238">
         <v>269</v>
       </c>
-      <c r="E14" s="243">
+      <c r="E14" s="238">
         <v>297</v>
       </c>
-      <c r="F14" s="243">
+      <c r="F14" s="238">
         <v>323</v>
       </c>
-      <c r="G14" s="243">
+      <c r="G14" s="238">
         <v>345</v>
       </c>
-      <c r="H14" s="249">
+      <c r="H14" s="244">
         <v>369</v>
       </c>
-      <c r="I14" s="237">
+      <c r="I14" s="232">
         <v>397</v>
       </c>
-      <c r="J14" s="235">
+      <c r="J14" s="230">
         <f>(I14*$P$11)+I14</f>
         <v>416.85</v>
       </c>
-      <c r="K14" s="233">
+      <c r="K14" s="228">
         <f t="shared" ref="K14:N14" si="10">(J14*$P$11)+J14</f>
         <v>437.6925</v>
       </c>
-      <c r="L14" s="235">
+      <c r="L14" s="230">
         <f t="shared" si="10"/>
         <v>459.57712500000002</v>
       </c>
-      <c r="M14" s="215">
+      <c r="M14" s="210">
         <f t="shared" si="10"/>
         <v>482.55598125</v>
       </c>
-      <c r="N14" s="235">
+      <c r="N14" s="230">
         <f t="shared" si="10"/>
         <v>506.68378031250001</v>
       </c>
-      <c r="O14" s="216"/>
+      <c r="O14" s="211"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
@@ -3580,44 +4099,44 @@
       <c r="B15" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="150">
+      <c r="C15" s="145">
         <v>1830</v>
       </c>
-      <c r="D15" s="150">
+      <c r="D15" s="145">
         <v>1953</v>
       </c>
-      <c r="E15" s="150">
+      <c r="E15" s="145">
         <v>2060</v>
       </c>
-      <c r="F15" s="150">
+      <c r="F15" s="145">
         <v>2080</v>
       </c>
-      <c r="G15" s="150">
+      <c r="G15" s="145">
         <v>1810</v>
       </c>
-      <c r="H15" s="150">
+      <c r="H15" s="145">
         <v>2216</v>
       </c>
-      <c r="I15" s="182">
+      <c r="I15" s="177">
         <v>2418</v>
       </c>
-      <c r="J15" s="78">
+      <c r="J15" s="76">
         <f>J10*$P$16</f>
         <v>2387.4479999999999</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="76">
         <f>K10*$P$16</f>
         <v>2506.8204000000001</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="76">
         <f>L10*$P$16</f>
         <v>2632.1614199999999</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="76">
         <f>M10*$P$16</f>
         <v>2763.769491</v>
       </c>
-      <c r="N15" s="79">
+      <c r="N15" s="77">
         <f>N10*$P$16</f>
         <v>2901.9579655500002</v>
       </c>
@@ -3626,54 +4145,54 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:19" ht="16" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="239">
+      <c r="C16" s="234">
         <f t="shared" ref="C16:I16" si="11">(C15/C10)</f>
         <v>0.19313984168865436</v>
       </c>
-      <c r="D16" s="239">
+      <c r="D16" s="234">
         <f t="shared" si="11"/>
         <v>0.19171493079414942</v>
       </c>
-      <c r="E16" s="239">
+      <c r="E16" s="234">
         <f t="shared" si="11"/>
         <v>0.19370004701457452</v>
       </c>
-      <c r="F16" s="239">
+      <c r="F16" s="234">
         <f t="shared" si="11"/>
         <v>0.19103600293901543</v>
       </c>
-      <c r="G16" s="239">
+      <c r="G16" s="234">
         <f>(G15/G10)</f>
         <v>0.16130469655110952</v>
       </c>
-      <c r="H16" s="239">
+      <c r="H16" s="234">
         <f t="shared" si="11"/>
         <v>0.18679929191604147</v>
       </c>
-      <c r="I16" s="240">
+      <c r="I16" s="235">
         <f t="shared" si="11"/>
         <v>0.19141861937935403</v>
       </c>
-      <c r="J16" s="241">
+      <c r="J16" s="236">
         <f t="shared" ref="J16:N16" si="12">(J15/J10)</f>
         <v>0.18</v>
       </c>
-      <c r="K16" s="241">
+      <c r="K16" s="236">
         <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
-      <c r="L16" s="241">
+      <c r="L16" s="236">
         <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
-      <c r="M16" s="241">
+      <c r="M16" s="236">
         <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
-      <c r="N16" s="242">
+      <c r="N16" s="237">
         <f t="shared" si="12"/>
         <v>0.18</v>
       </c>
@@ -3686,47 +4205,47 @@
       <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="2:17" ht="16" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="279" t="s">
+      <c r="B17" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="244">
+      <c r="C17" s="239">
         <v>168</v>
       </c>
-      <c r="D17" s="244">
+      <c r="D17" s="239">
         <v>150</v>
       </c>
-      <c r="E17" s="244">
+      <c r="E17" s="239">
         <v>147</v>
       </c>
-      <c r="F17" s="244">
+      <c r="F17" s="239">
         <v>155</v>
       </c>
-      <c r="G17" s="244">
+      <c r="G17" s="239">
         <v>175</v>
       </c>
-      <c r="H17" s="250">
+      <c r="H17" s="245">
         <v>185</v>
       </c>
-      <c r="I17" s="192">
+      <c r="I17" s="187">
         <v>201</v>
       </c>
-      <c r="J17" s="138">
+      <c r="J17" s="133">
         <f>(I17*$P$11)+I17</f>
         <v>211.05</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="133">
         <f t="shared" ref="K17:N17" si="13">(J17*$P$11)+J17</f>
         <v>221.60250000000002</v>
       </c>
-      <c r="L17" s="138">
+      <c r="L17" s="133">
         <f t="shared" si="13"/>
         <v>232.68262500000003</v>
       </c>
-      <c r="M17" s="138">
+      <c r="M17" s="133">
         <f t="shared" si="13"/>
         <v>244.31675625000003</v>
       </c>
-      <c r="N17" s="139">
+      <c r="N17" s="134">
         <f t="shared" si="13"/>
         <v>256.53259406250004</v>
       </c>
@@ -3735,72 +4254,72 @@
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="2:17" ht="16" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="280"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="191"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="90"/>
+      <c r="B18" s="273"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="88"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="2:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="208" t="s">
+      <c r="B19" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="178">
+      <c r="C19" s="173">
         <f t="shared" ref="C19:I19" si="14">C15-C17</f>
         <v>1662</v>
       </c>
-      <c r="D19" s="178">
+      <c r="D19" s="173">
         <f t="shared" si="14"/>
         <v>1803</v>
       </c>
-      <c r="E19" s="178">
+      <c r="E19" s="173">
         <f t="shared" si="14"/>
         <v>1913</v>
       </c>
-      <c r="F19" s="178">
+      <c r="F19" s="173">
         <f t="shared" si="14"/>
         <v>1925</v>
       </c>
-      <c r="G19" s="178">
+      <c r="G19" s="173">
         <f t="shared" si="14"/>
         <v>1635</v>
       </c>
-      <c r="H19" s="178">
+      <c r="H19" s="173">
         <f t="shared" si="14"/>
         <v>2031</v>
       </c>
-      <c r="I19" s="179">
+      <c r="I19" s="174">
         <f t="shared" si="14"/>
         <v>2217</v>
       </c>
-      <c r="J19" s="91">
+      <c r="J19" s="89">
         <f t="shared" ref="J19:N19" si="15">J15-J17-J18</f>
         <v>2176.3979999999997</v>
       </c>
-      <c r="K19" s="91">
+      <c r="K19" s="89">
         <f t="shared" si="15"/>
         <v>2285.2179000000001</v>
       </c>
-      <c r="L19" s="91">
+      <c r="L19" s="89">
         <f t="shared" si="15"/>
         <v>2399.478795</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="89">
         <f t="shared" si="15"/>
         <v>2519.4527347499998</v>
       </c>
-      <c r="N19" s="92">
+      <c r="N19" s="90">
         <f t="shared" si="15"/>
         <v>2645.4253714875003</v>
       </c>
@@ -3809,47 +4328,47 @@
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="2:17" ht="16" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="244">
+      <c r="C20" s="239">
         <v>592</v>
       </c>
-      <c r="D20" s="244">
+      <c r="D20" s="239">
         <v>642</v>
       </c>
-      <c r="E20" s="244">
+      <c r="E20" s="239">
         <v>671</v>
       </c>
-      <c r="F20" s="244">
+      <c r="F20" s="239">
         <v>644</v>
       </c>
-      <c r="G20" s="244">
+      <c r="G20" s="239">
         <v>298</v>
       </c>
-      <c r="H20" s="251">
+      <c r="H20" s="246">
         <v>414</v>
       </c>
-      <c r="I20" s="193">
+      <c r="I20" s="188">
         <v>483</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="86">
         <f>J19*J21</f>
         <v>457.04357999999991</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="86">
         <f t="shared" ref="K20:N20" si="16">K19*K21</f>
         <v>479.895759</v>
       </c>
-      <c r="L20" s="88">
+      <c r="L20" s="86">
         <f t="shared" si="16"/>
         <v>503.89054694999999</v>
       </c>
-      <c r="M20" s="88">
+      <c r="M20" s="86">
         <f t="shared" si="16"/>
         <v>529.08507429749989</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="87">
         <f t="shared" si="16"/>
         <v>555.53932801237499</v>
       </c>
@@ -3858,54 +4377,54 @@
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="2:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="188">
+      <c r="C21" s="183">
         <f>(C20/C19)</f>
         <v>0.35619735258724428</v>
       </c>
-      <c r="D21" s="188">
+      <c r="D21" s="183">
         <f>(D20/D19)</f>
         <v>0.35607321131447589</v>
       </c>
-      <c r="E21" s="188">
+      <c r="E21" s="183">
         <f>(E20/E19)</f>
         <v>0.35075797177208573</v>
       </c>
-      <c r="F21" s="188">
+      <c r="F21" s="183">
         <f>(F20/F19)</f>
         <v>0.33454545454545453</v>
       </c>
-      <c r="G21" s="188">
+      <c r="G21" s="183">
         <f>(G20/G19)</f>
         <v>0.18226299694189602</v>
       </c>
-      <c r="H21" s="188">
+      <c r="H21" s="183">
         <f t="shared" ref="H21:I21" si="17">(H20/H19)</f>
         <v>0.20384047267355981</v>
       </c>
-      <c r="I21" s="189">
+      <c r="I21" s="184">
         <f t="shared" si="17"/>
         <v>0.2178619756427605</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="78">
         <f>$P$21</f>
         <v>0.21</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="78">
         <f t="shared" ref="K21:N21" si="18">$P$21</f>
         <v>0.21</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="78">
         <f t="shared" si="18"/>
         <v>0.21</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="78">
         <f t="shared" si="18"/>
         <v>0.21</v>
       </c>
-      <c r="N21" s="87">
+      <c r="N21" s="85">
         <f t="shared" si="18"/>
         <v>0.21</v>
       </c>
@@ -3918,54 +4437,54 @@
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="2:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="211" t="s">
+      <c r="B22" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="187">
+      <c r="C22" s="182">
         <f>C19-C20</f>
         <v>1070</v>
       </c>
-      <c r="D22" s="187">
+      <c r="D22" s="182">
         <f>D19-D20</f>
         <v>1161</v>
       </c>
-      <c r="E22" s="187">
+      <c r="E22" s="182">
         <f>E19-E20</f>
         <v>1242</v>
       </c>
-      <c r="F22" s="187">
+      <c r="F22" s="182">
         <f>F19-F20</f>
         <v>1281</v>
       </c>
-      <c r="G22" s="187">
+      <c r="G22" s="182">
         <f>G19-G20</f>
         <v>1337</v>
       </c>
-      <c r="H22" s="207">
+      <c r="H22" s="202">
         <f t="shared" ref="H22:I22" si="19">H19-H20</f>
         <v>1617</v>
       </c>
-      <c r="I22" s="194">
+      <c r="I22" s="189">
         <f t="shared" si="19"/>
         <v>1734</v>
       </c>
-      <c r="J22" s="93">
+      <c r="J22" s="91">
         <f t="shared" ref="J22:N22" si="20">J19-J20</f>
         <v>1719.3544199999997</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K22" s="91">
         <f t="shared" si="20"/>
         <v>1805.3221410000001</v>
       </c>
-      <c r="L22" s="93">
+      <c r="L22" s="91">
         <f t="shared" si="20"/>
         <v>1895.5882480499999</v>
       </c>
-      <c r="M22" s="93">
+      <c r="M22" s="91">
         <f t="shared" si="20"/>
         <v>1990.3676604524999</v>
       </c>
-      <c r="N22" s="94">
+      <c r="N22" s="92">
         <f t="shared" si="20"/>
         <v>2089.8860434751255</v>
       </c>
@@ -3974,47 +4493,47 @@
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="2:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="157">
+      <c r="C23" s="152">
         <v>0</v>
       </c>
-      <c r="D23" s="157">
+      <c r="D23" s="152">
         <v>0</v>
       </c>
-      <c r="E23" s="157">
+      <c r="E23" s="152">
         <v>0</v>
       </c>
-      <c r="F23" s="157">
+      <c r="F23" s="152">
         <v>0</v>
       </c>
-      <c r="G23" s="157">
+      <c r="G23" s="152">
         <v>0</v>
       </c>
-      <c r="H23" s="157">
+      <c r="H23" s="152">
         <v>0</v>
       </c>
-      <c r="I23" s="157">
+      <c r="I23" s="152">
         <v>0</v>
       </c>
-      <c r="J23" s="236">
+      <c r="J23" s="231">
         <f>I23*(1+$P$11)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="83">
+      <c r="K23" s="81">
         <f t="shared" ref="K23:N23" si="21">J23*(1+$P$11)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="83">
+      <c r="L23" s="81">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M23" s="83">
+      <c r="M23" s="81">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N23" s="204">
+      <c r="N23" s="199">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -4023,54 +4542,54 @@
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="212" t="s">
+      <c r="B24" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="185">
+      <c r="C24" s="180">
         <f>C22-C23</f>
         <v>1070</v>
       </c>
-      <c r="D24" s="185">
+      <c r="D24" s="180">
         <f>D22-D23</f>
         <v>1161</v>
       </c>
-      <c r="E24" s="185">
+      <c r="E24" s="180">
         <f>E22-E23</f>
         <v>1242</v>
       </c>
-      <c r="F24" s="185">
+      <c r="F24" s="180">
         <f>F22-F23</f>
         <v>1281</v>
       </c>
-      <c r="G24" s="185">
+      <c r="G24" s="180">
         <f>G22-G23</f>
         <v>1337</v>
       </c>
-      <c r="H24" s="185">
+      <c r="H24" s="180">
         <f t="shared" ref="H24:I24" si="22">H22-H23</f>
         <v>1617</v>
       </c>
-      <c r="I24" s="186">
+      <c r="I24" s="181">
         <f t="shared" si="22"/>
         <v>1734</v>
       </c>
-      <c r="J24" s="95">
+      <c r="J24" s="93">
         <f t="shared" ref="J24:N24" si="23">J22-J23</f>
         <v>1719.3544199999997</v>
       </c>
-      <c r="K24" s="95">
+      <c r="K24" s="93">
         <f t="shared" si="23"/>
         <v>1805.3221410000001</v>
       </c>
-      <c r="L24" s="95">
+      <c r="L24" s="93">
         <f t="shared" si="23"/>
         <v>1895.5882480499999</v>
       </c>
-      <c r="M24" s="95">
+      <c r="M24" s="93">
         <f t="shared" si="23"/>
         <v>1990.3676604524999</v>
       </c>
-      <c r="N24" s="96">
+      <c r="N24" s="94">
         <f t="shared" si="23"/>
         <v>2089.8860434751255</v>
       </c>
@@ -4079,54 +4598,54 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="78">
         <f t="shared" ref="C25:I25" si="24">C24/C10</f>
         <v>0.11292875989445911</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="78">
         <f t="shared" si="24"/>
         <v>0.11396878374398743</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="78">
         <f t="shared" si="24"/>
         <v>0.11678420310296192</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="78">
         <f t="shared" si="24"/>
         <v>0.11765246142542249</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="78">
         <f t="shared" si="24"/>
         <v>0.11915159076731129</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="78">
         <f t="shared" si="24"/>
         <v>0.13630616201635337</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="85">
         <f t="shared" si="24"/>
         <v>0.13727042431918937</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="78">
         <f t="shared" ref="J25:N25" si="25">J24/J10</f>
         <v>0.12962954401519947</v>
       </c>
-      <c r="K25" s="80">
+      <c r="K25" s="78">
         <f t="shared" si="25"/>
         <v>0.12962954401519949</v>
       </c>
-      <c r="L25" s="80">
+      <c r="L25" s="78">
         <f t="shared" si="25"/>
         <v>0.12962954401519949</v>
       </c>
-      <c r="M25" s="80">
+      <c r="M25" s="78">
         <f t="shared" si="25"/>
         <v>0.12962954401519947</v>
       </c>
-      <c r="N25" s="87">
+      <c r="N25" s="85">
         <f t="shared" si="25"/>
         <v>0.12962954401519952</v>
       </c>
@@ -4138,51 +4657,51 @@
       <c r="B26" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="95">
         <f>C24/C27</f>
         <v>31.470588235294116</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="95">
         <f>D24/D27</f>
         <v>36.28125</v>
       </c>
-      <c r="E26" s="97">
+      <c r="E26" s="95">
         <f>E24/E27</f>
         <v>40.85526315789474</v>
       </c>
-      <c r="F26" s="97">
+      <c r="F26" s="95">
         <f>F24/F27</f>
         <v>44.172413793103445</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G26" s="95">
         <f>G24/G27</f>
         <v>49.518518518518519</v>
       </c>
-      <c r="H26" s="97">
+      <c r="H26" s="95">
         <f t="shared" ref="H26:I26" si="26">H24/H27</f>
         <v>63.661417322834652</v>
       </c>
-      <c r="I26" s="98">
+      <c r="I26" s="96">
         <f t="shared" si="26"/>
         <v>72.25</v>
       </c>
-      <c r="J26" s="97">
+      <c r="J26" s="95">
         <f>J24/J27</f>
         <v>78.152473636363624</v>
       </c>
-      <c r="K26" s="97">
+      <c r="K26" s="95">
         <f t="shared" ref="K26:N26" si="27">K24/K27</f>
         <v>90.266107050000002</v>
       </c>
-      <c r="L26" s="97">
+      <c r="L26" s="95">
         <f>L24/L27</f>
         <v>105.31045822499999</v>
       </c>
-      <c r="M26" s="97">
+      <c r="M26" s="95">
         <f t="shared" si="27"/>
         <v>124.39797877828124</v>
       </c>
-      <c r="N26" s="98">
+      <c r="N26" s="96">
         <f t="shared" si="27"/>
         <v>139.32573623167502</v>
       </c>
@@ -4194,350 +4713,589 @@
       <c r="B27" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="252">
+      <c r="C27" s="247">
         <v>34</v>
       </c>
-      <c r="D27" s="245">
+      <c r="D27" s="240">
         <v>32</v>
       </c>
-      <c r="E27" s="245">
+      <c r="E27" s="240">
         <v>30.4</v>
       </c>
-      <c r="F27" s="245">
+      <c r="F27" s="240">
         <v>29</v>
       </c>
-      <c r="G27" s="245">
+      <c r="G27" s="240">
         <v>27</v>
       </c>
-      <c r="H27" s="245">
+      <c r="H27" s="240">
         <v>25.4</v>
       </c>
-      <c r="I27" s="100">
+      <c r="I27" s="98">
         <v>24</v>
       </c>
-      <c r="J27" s="99">
+      <c r="J27" s="97">
         <v>22</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="97">
         <v>20</v>
       </c>
-      <c r="L27" s="99">
+      <c r="L27" s="97">
         <v>18</v>
       </c>
-      <c r="M27" s="99">
+      <c r="M27" s="97">
         <v>16</v>
       </c>
-      <c r="N27" s="99">
+      <c r="N27" s="97">
         <v>15</v>
       </c>
-      <c r="O27" s="216"/>
+      <c r="O27" s="211"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="71"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="71"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
+    <row r="29" spans="2:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="351" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="71"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
+      <c r="B30" s="305"/>
+      <c r="C30" s="306"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="307"/>
+      <c r="F30" s="308"/>
+      <c r="G30" s="308"/>
+      <c r="H30" s="308"/>
+      <c r="I30" s="308"/>
+      <c r="J30" s="308"/>
+      <c r="K30" s="308"/>
+      <c r="L30" s="308"/>
+      <c r="M30" s="308"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="265"/>
-      <c r="C31" s="265"/>
-      <c r="D31" s="265"/>
-      <c r="E31" s="265"/>
-      <c r="F31" s="265"/>
-      <c r="G31" s="265"/>
-      <c r="H31" s="265"/>
-      <c r="I31" s="265"/>
-      <c r="J31" s="265"/>
-      <c r="K31" s="265"/>
-      <c r="L31" s="265"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="101"/>
+      <c r="B31" s="309" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="355" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="355"/>
+      <c r="E31" s="371"/>
+      <c r="F31" s="310"/>
+      <c r="G31" s="311"/>
+      <c r="H31" s="312"/>
+      <c r="I31" s="312" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="313"/>
+      <c r="K31" s="313"/>
+      <c r="L31" s="308"/>
+      <c r="M31" s="308"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="71"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="101"/>
-    </row>
-    <row r="33" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="71"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="101"/>
+      <c r="B32" s="352" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="363" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="363"/>
+      <c r="E32" s="364"/>
+      <c r="F32" s="308"/>
+      <c r="G32" s="308"/>
+      <c r="H32" s="308"/>
+      <c r="I32" s="308"/>
+      <c r="J32" s="308"/>
+      <c r="K32" s="308"/>
+      <c r="L32" s="308"/>
+      <c r="M32" s="308"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="354" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="365" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="365"/>
+      <c r="E33" s="366"/>
+      <c r="F33" s="308"/>
+      <c r="G33" s="315" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="316"/>
+      <c r="I33" s="317" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="318" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="308"/>
+      <c r="L33" s="308"/>
+      <c r="M33" s="308"/>
+      <c r="N33" s="31"/>
     </row>
     <row r="34" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="72"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="101"/>
-    </row>
-    <row r="35" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="71"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="101"/>
-    </row>
-    <row r="36" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="71"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="101"/>
-    </row>
-    <row r="37" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="72"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="101"/>
-    </row>
-    <row r="38" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="71"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="101"/>
-    </row>
-    <row r="39" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="71"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="101"/>
+      <c r="B34" s="352" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="365" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="365"/>
+      <c r="E34" s="366"/>
+      <c r="F34" s="308"/>
+      <c r="G34" s="319" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="320"/>
+      <c r="I34" s="308" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="310" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="308"/>
+      <c r="L34" s="308"/>
+      <c r="M34" s="308"/>
+      <c r="N34" s="31"/>
+    </row>
+    <row r="35" spans="2:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="354" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="367" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="367"/>
+      <c r="E35" s="368"/>
+      <c r="F35" s="308"/>
+      <c r="G35" s="319" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="320"/>
+      <c r="I35" s="308" t="s">
+        <v>145</v>
+      </c>
+      <c r="J35" s="310" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35" s="308"/>
+      <c r="L35" s="308"/>
+      <c r="M35" s="308"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="354" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="365" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="365"/>
+      <c r="E36" s="366"/>
+      <c r="F36" s="308"/>
+      <c r="G36" s="319" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" s="320"/>
+      <c r="I36" s="308" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="310" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="308"/>
+      <c r="L36" s="308"/>
+      <c r="M36" s="308"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="353" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="365" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="365"/>
+      <c r="E37" s="366"/>
+      <c r="F37" s="308"/>
+      <c r="G37" s="322" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="323"/>
+      <c r="I37" s="324" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="325" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="308"/>
+      <c r="L37" s="308"/>
+      <c r="M37" s="308"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="362" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="369" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="369"/>
+      <c r="E38" s="370"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="308"/>
+      <c r="I38" s="308"/>
+      <c r="J38" s="308"/>
+      <c r="K38" s="308"/>
+      <c r="L38" s="308"/>
+      <c r="M38" s="308"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="356"/>
+      <c r="C39" s="357"/>
+      <c r="D39" s="357"/>
+      <c r="E39" s="310"/>
+      <c r="F39" s="308"/>
+      <c r="G39" s="327" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
+      <c r="K39" s="328"/>
+      <c r="L39" s="328"/>
+      <c r="M39" s="329"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="71"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="101"/>
-    </row>
-    <row r="41" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="71"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="101"/>
-    </row>
-    <row r="42" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="72"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="101"/>
-    </row>
-    <row r="43" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="266"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="266"/>
-      <c r="E43" s="266"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-    </row>
-    <row r="44" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="71"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-    </row>
-    <row r="45" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="71"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
+      <c r="B40" s="321" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="358"/>
+      <c r="D40" s="358"/>
+      <c r="E40" s="359"/>
+      <c r="F40" s="308"/>
+      <c r="G40" s="330" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="331"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="333" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" s="334" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" s="335"/>
+      <c r="M40" s="336"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="358"/>
+      <c r="D41" s="358"/>
+      <c r="E41" s="359"/>
+      <c r="F41" s="308"/>
+      <c r="G41" s="338" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="339"/>
+      <c r="I41" s="340"/>
+      <c r="J41" s="341" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="342" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="324"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="31"/>
+    </row>
+    <row r="42" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="314"/>
+      <c r="C42" s="372" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="372"/>
+      <c r="E42" s="359"/>
+      <c r="F42" s="308"/>
+      <c r="G42" s="308"/>
+      <c r="H42" s="308"/>
+      <c r="I42" s="308"/>
+      <c r="J42" s="308"/>
+      <c r="K42" s="308"/>
+      <c r="L42" s="308"/>
+      <c r="M42" s="308"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="321" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="360" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="361" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="310"/>
+      <c r="F43" s="308"/>
+      <c r="G43" s="327" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="328"/>
+      <c r="I43" s="328"/>
+      <c r="J43" s="328"/>
+      <c r="K43" s="328"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="329"/>
+      <c r="N43" s="31"/>
+    </row>
+    <row r="44" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="337" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="357" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="357" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="310"/>
+      <c r="F44" s="308"/>
+      <c r="G44" s="330" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="331"/>
+      <c r="I44" s="332" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" s="333" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="344" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44" s="345"/>
+      <c r="M44" s="346"/>
+      <c r="N44" s="31"/>
+    </row>
+    <row r="45" spans="2:14" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="343" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="357" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="357" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="310"/>
+      <c r="F45" s="308"/>
+      <c r="G45" s="338" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="339"/>
+      <c r="I45" s="340" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" s="341" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="348" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" s="349"/>
+      <c r="M45" s="350"/>
+      <c r="N45" s="31"/>
     </row>
     <row r="46" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="71"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
+      <c r="B46" s="343" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="357" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="357" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="310"/>
+      <c r="F46" s="308"/>
+      <c r="G46" s="308"/>
+      <c r="H46" s="308"/>
+      <c r="I46" s="308"/>
+      <c r="J46" s="308"/>
+      <c r="K46" s="308"/>
+      <c r="L46" s="308"/>
+      <c r="M46" s="308"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="356"/>
+      <c r="C47" s="358"/>
+      <c r="D47" s="358"/>
+      <c r="E47" s="359"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="314"/>
+      <c r="C48" s="372" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="372"/>
+      <c r="E48" s="359"/>
+    </row>
+    <row r="49" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49" s="321" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="360" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="361" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="359"/>
+    </row>
+    <row r="50" spans="2:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50" s="337" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="357" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="357" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="359"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="343" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="357" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="357" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="359"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="343" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="357" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="357" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="359"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="356"/>
+      <c r="C53" s="358"/>
+      <c r="D53" s="358"/>
+      <c r="E53" s="359"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="314"/>
+      <c r="C54" s="360" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="361" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="310"/>
+    </row>
+    <row r="55" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="347" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="324" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="324" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="325"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B43:L43"/>
+  <mergeCells count="18">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="C2:N7"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4565,97 +5323,97 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="267"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="284"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="277"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="268"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="287"/>
+      <c r="B3" s="261"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="280"/>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="268"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
-      <c r="M4" s="286"/>
-      <c r="N4" s="287"/>
+      <c r="B4" s="261"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="280"/>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="268"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="287"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="280"/>
     </row>
     <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="268"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="286"/>
-      <c r="N6" s="287"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="280"/>
     </row>
     <row r="7" spans="2:15" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="268"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="286"/>
-      <c r="N7" s="287"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="279"/>
+      <c r="M7" s="279"/>
+      <c r="N7" s="280"/>
     </row>
     <row r="8" spans="2:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="281"/>
+      <c r="B8" s="274"/>
       <c r="C8" s="33">
         <v>2014</v>
       </c>
@@ -4677,19 +5435,19 @@
       <c r="I8" s="33">
         <v>2020</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="99">
         <v>2021</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="100">
         <v>2022</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="100">
         <v>2023</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="100">
         <v>2024</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="101">
         <v>2025</v>
       </c>
     </row>
@@ -4714,256 +5472,256 @@
       <c r="B10" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C10" s="135">
         <f>'1.Income statement'!C12</f>
         <v>2081</v>
       </c>
-      <c r="D10" s="140">
+      <c r="D10" s="135">
         <f>'1.Income statement'!D12</f>
         <v>2222</v>
       </c>
-      <c r="E10" s="140">
+      <c r="E10" s="135">
         <f>'1.Income statement'!E12</f>
         <v>2357</v>
       </c>
-      <c r="F10" s="140">
+      <c r="F10" s="135">
         <f>'1.Income statement'!F12</f>
         <v>2403</v>
       </c>
-      <c r="G10" s="140">
+      <c r="G10" s="135">
         <f>'1.Income statement'!G12</f>
         <v>2155</v>
       </c>
-      <c r="H10" s="140">
+      <c r="H10" s="135">
         <f>'1.Income statement'!H12</f>
         <v>2585</v>
       </c>
-      <c r="I10" s="140">
+      <c r="I10" s="135">
         <f>'1.Income statement'!I12</f>
         <v>2815</v>
       </c>
-      <c r="J10" s="141">
+      <c r="J10" s="136">
         <f>'1.Income statement'!J12</f>
         <v>2804.2979999999998</v>
       </c>
-      <c r="K10" s="140">
+      <c r="K10" s="135">
         <f>'1.Income statement'!K12</f>
         <v>2944.5129000000002</v>
       </c>
-      <c r="L10" s="140">
+      <c r="L10" s="135">
         <f>'1.Income statement'!L12</f>
         <v>3091.7385450000002</v>
       </c>
-      <c r="M10" s="140">
+      <c r="M10" s="135">
         <f>'1.Income statement'!M12</f>
         <v>3246.3254722500001</v>
       </c>
-      <c r="N10" s="142">
+      <c r="N10" s="137">
         <f>'1.Income statement'!N12</f>
         <v>3408.6417458625001</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="154">
+      <c r="C11" s="149">
         <v>438</v>
       </c>
-      <c r="D11" s="154">
+      <c r="D11" s="149">
         <v>481</v>
       </c>
-      <c r="E11" s="154">
+      <c r="E11" s="149">
         <v>489</v>
       </c>
-      <c r="F11" s="154">
+      <c r="F11" s="149">
         <v>553</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="149">
         <v>522</v>
       </c>
-      <c r="H11" s="154">
+      <c r="H11" s="149">
         <v>496</v>
       </c>
-      <c r="I11" s="154">
+      <c r="I11" s="149">
         <v>458</v>
       </c>
-      <c r="J11" s="143">
+      <c r="J11" s="138">
         <f>(I11*'1.Income statement'!$P$11)+'2.Flujos de caja'!I11</f>
         <v>480.9</v>
       </c>
-      <c r="K11" s="144">
+      <c r="K11" s="139">
         <f>(J11*'1.Income statement'!$P$11)+'2.Flujos de caja'!J11</f>
         <v>504.94499999999999</v>
       </c>
-      <c r="L11" s="144">
+      <c r="L11" s="139">
         <f>(K11*'1.Income statement'!$P$11)+'2.Flujos de caja'!K11</f>
         <v>530.19224999999994</v>
       </c>
-      <c r="M11" s="144">
+      <c r="M11" s="139">
         <f>(L11*'1.Income statement'!$P$11)+'2.Flujos de caja'!L11</f>
         <v>556.70186249999995</v>
       </c>
-      <c r="N11" s="145">
+      <c r="N11" s="140">
         <f>(M11*'1.Income statement'!$P$11)+'2.Flujos de caja'!M11</f>
         <v>584.53695562499991</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="146">
+      <c r="C12" s="141">
         <f>'1.Income statement'!C17</f>
         <v>168</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="141">
         <f>'1.Income statement'!D17</f>
         <v>150</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="141">
         <f>'1.Income statement'!E17</f>
         <v>147</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="141">
         <f>'1.Income statement'!F17</f>
         <v>155</v>
       </c>
-      <c r="G12" s="146">
+      <c r="G12" s="141">
         <f>'1.Income statement'!G17</f>
         <v>175</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="141">
         <f>'1.Income statement'!H17</f>
         <v>185</v>
       </c>
-      <c r="I12" s="146">
+      <c r="I12" s="141">
         <f>'1.Income statement'!I17</f>
         <v>201</v>
       </c>
-      <c r="J12" s="147">
+      <c r="J12" s="142">
         <f>'1.Income statement'!J17</f>
         <v>211.05</v>
       </c>
-      <c r="K12" s="146">
+      <c r="K12" s="141">
         <f>'1.Income statement'!K17</f>
         <v>221.60250000000002</v>
       </c>
-      <c r="L12" s="146">
+      <c r="L12" s="141">
         <f>'1.Income statement'!L17</f>
         <v>232.68262500000003</v>
       </c>
-      <c r="M12" s="146">
+      <c r="M12" s="141">
         <f>'1.Income statement'!M17</f>
         <v>244.31675625000003</v>
       </c>
-      <c r="N12" s="148">
+      <c r="N12" s="143">
         <f>'1.Income statement'!N17</f>
         <v>256.53259406250004</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="197" t="s">
+      <c r="B13" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="146">
+      <c r="C13" s="141">
         <f>'1.Income statement'!C20</f>
         <v>592</v>
       </c>
-      <c r="D13" s="146">
+      <c r="D13" s="141">
         <f>'1.Income statement'!D20</f>
         <v>642</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="141">
         <f>'1.Income statement'!E20</f>
         <v>671</v>
       </c>
-      <c r="F13" s="146">
+      <c r="F13" s="141">
         <f>'1.Income statement'!F20</f>
         <v>644</v>
       </c>
-      <c r="G13" s="146">
+      <c r="G13" s="141">
         <f>'1.Income statement'!G20</f>
         <v>298</v>
       </c>
-      <c r="H13" s="146">
+      <c r="H13" s="141">
         <f>'1.Income statement'!H20</f>
         <v>414</v>
       </c>
-      <c r="I13" s="146">
+      <c r="I13" s="141">
         <f>'1.Income statement'!I20</f>
         <v>483</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="142">
         <f>'1.Income statement'!J20</f>
         <v>457.04357999999991</v>
       </c>
-      <c r="K13" s="146">
+      <c r="K13" s="141">
         <f>'1.Income statement'!K20</f>
         <v>479.895759</v>
       </c>
-      <c r="L13" s="146">
+      <c r="L13" s="141">
         <f>'1.Income statement'!L20</f>
         <v>503.89054694999999</v>
       </c>
-      <c r="M13" s="146">
+      <c r="M13" s="141">
         <f>'1.Income statement'!M20</f>
         <v>529.08507429749989</v>
       </c>
-      <c r="N13" s="148">
+      <c r="N13" s="143">
         <f>'1.Income statement'!N20</f>
         <v>555.53932801237499</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="195">
+      <c r="C14" s="190">
         <f>'1.Income statement'!C23</f>
         <v>0</v>
       </c>
-      <c r="D14" s="195">
+      <c r="D14" s="190">
         <f>'1.Income statement'!D23</f>
         <v>0</v>
       </c>
-      <c r="E14" s="195">
+      <c r="E14" s="190">
         <f>'1.Income statement'!E23</f>
         <v>0</v>
       </c>
-      <c r="F14" s="195">
+      <c r="F14" s="190">
         <f>'1.Income statement'!F23</f>
         <v>0</v>
       </c>
-      <c r="G14" s="195">
+      <c r="G14" s="190">
         <f>'1.Income statement'!G23</f>
         <v>0</v>
       </c>
-      <c r="H14" s="195">
+      <c r="H14" s="190">
         <f>'1.Income statement'!H23</f>
         <v>0</v>
       </c>
-      <c r="I14" s="195">
+      <c r="I14" s="190">
         <f>'1.Income statement'!I23</f>
         <v>0</v>
       </c>
-      <c r="J14" s="238">
+      <c r="J14" s="233">
         <f>'1.Income statement'!J23</f>
         <v>0</v>
       </c>
-      <c r="K14" s="202">
+      <c r="K14" s="197">
         <f>'1.Income statement'!K23</f>
         <v>0</v>
       </c>
-      <c r="L14" s="202">
+      <c r="L14" s="197">
         <f>'1.Income statement'!L23</f>
         <v>0</v>
       </c>
-      <c r="M14" s="202">
+      <c r="M14" s="197">
         <f>'1.Income statement'!M23</f>
         <v>0</v>
       </c>
-      <c r="N14" s="203">
+      <c r="N14" s="198">
         <f>'1.Income statement'!N23</f>
         <v>0</v>
       </c>
@@ -4972,55 +5730,55 @@
       <c r="B15" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="144">
         <f t="shared" ref="C15:J15" si="0">C10-C11-C12-C13-C14</f>
         <v>883</v>
       </c>
-      <c r="D15" s="149">
+      <c r="D15" s="144">
         <f t="shared" si="0"/>
         <v>949</v>
       </c>
-      <c r="E15" s="149">
+      <c r="E15" s="144">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="F15" s="149">
+      <c r="F15" s="144">
         <f t="shared" si="0"/>
         <v>1051</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="144">
         <f t="shared" si="0"/>
         <v>1160</v>
       </c>
-      <c r="H15" s="149">
+      <c r="H15" s="144">
         <f t="shared" si="0"/>
         <v>1490</v>
       </c>
-      <c r="I15" s="149">
+      <c r="I15" s="144">
         <f t="shared" si="0"/>
         <v>1673</v>
       </c>
-      <c r="J15" s="213">
+      <c r="J15" s="208">
         <f t="shared" si="0"/>
         <v>1655.3044199999995</v>
       </c>
-      <c r="K15" s="149">
+      <c r="K15" s="144">
         <f t="shared" ref="K15:M15" si="1">K10-K11-K12-K13-K14</f>
         <v>1738.069641</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="144">
         <f t="shared" si="1"/>
         <v>1824.9731230500001</v>
       </c>
-      <c r="M15" s="149">
+      <c r="M15" s="144">
         <f t="shared" si="1"/>
         <v>1916.2217792025003</v>
       </c>
-      <c r="N15" s="149">
+      <c r="N15" s="144">
         <f>N10-N11-N12-N13-N14</f>
         <v>2012.0328681626256</v>
       </c>
-      <c r="O15" s="227"/>
+      <c r="O15" s="222"/>
     </row>
     <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="66" t="s">
@@ -5074,7 +5832,7 @@
         <f>N15/'1.Income statement'!N27</f>
         <v>134.13552454417504</v>
       </c>
-      <c r="O16" s="217"/>
+      <c r="O16" s="212"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="28"/>
@@ -5145,7 +5903,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="214"/>
+      <c r="J21" s="209"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -5317,97 +6075,97 @@
   <sheetData>
     <row r="1" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="288"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="284"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="277"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="289"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="287"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="280"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="289"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="286"/>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
-      <c r="M4" s="286"/>
-      <c r="N4" s="287"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="280"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="289"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286"/>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286"/>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="286"/>
-      <c r="N5" s="287"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="278"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="280"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="289"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="286"/>
-      <c r="N6" s="287"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="280"/>
     </row>
     <row r="7" spans="2:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="289"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="286"/>
-      <c r="N7" s="287"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="279"/>
+      <c r="M7" s="279"/>
+      <c r="N7" s="280"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="289"/>
+      <c r="B8" s="282"/>
       <c r="C8" s="33">
         <v>2014</v>
       </c>
@@ -5429,19 +6187,19 @@
       <c r="I8" s="33">
         <v>2020</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="99">
         <v>2021</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="100">
         <v>2022</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="100">
         <v>2023</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="100">
         <v>2024</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="101">
         <v>2025</v>
       </c>
     </row>
@@ -5455,7 +6213,7 @@
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
-      <c r="I9" s="151"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="67"/>
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
@@ -5463,7 +6221,7 @@
       <c r="N9" s="51"/>
     </row>
     <row r="10" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="213" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="46">
@@ -5523,7 +6281,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="219" t="s">
+      <c r="B11" s="214" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="53">
@@ -5576,7 +6334,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="215" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="55">
@@ -5629,7 +6387,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="221" t="s">
+      <c r="B13" s="216" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="46">
@@ -5682,28 +6440,28 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="217" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="246">
+      <c r="C14" s="241">
         <v>124</v>
       </c>
-      <c r="D14" s="246">
+      <c r="D14" s="241">
         <v>175</v>
       </c>
-      <c r="E14" s="246">
+      <c r="E14" s="241">
         <v>189</v>
       </c>
-      <c r="F14" s="246">
+      <c r="F14" s="241">
         <v>293</v>
       </c>
-      <c r="G14" s="246">
+      <c r="G14" s="241">
         <v>217</v>
       </c>
-      <c r="H14" s="254">
+      <c r="H14" s="249">
         <v>176</v>
       </c>
-      <c r="I14" s="199">
+      <c r="I14" s="194">
         <v>1751</v>
       </c>
       <c r="J14" s="55">
@@ -5726,31 +6484,31 @@
         <f t="shared" si="0"/>
         <v>2234.7690159375002</v>
       </c>
-      <c r="O14" s="227"/>
+      <c r="O14" s="222"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="223" t="s">
+      <c r="B15" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="246">
+      <c r="C15" s="241">
         <v>4342</v>
       </c>
-      <c r="D15" s="246">
+      <c r="D15" s="241">
         <v>4624</v>
       </c>
-      <c r="E15" s="246">
+      <c r="E15" s="241">
         <v>4924</v>
       </c>
-      <c r="F15" s="246">
+      <c r="F15" s="241">
         <v>5081</v>
       </c>
-      <c r="G15" s="246">
+      <c r="G15" s="241">
         <v>5005</v>
       </c>
-      <c r="H15" s="255">
+      <c r="H15" s="250">
         <v>5206</v>
       </c>
-      <c r="I15" s="152">
+      <c r="I15" s="147">
         <v>5513</v>
       </c>
       <c r="J15" s="55">
@@ -5775,28 +6533,28 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="246">
+      <c r="C16" s="241">
         <v>367</v>
       </c>
-      <c r="D16" s="246">
+      <c r="D16" s="241">
         <v>391</v>
       </c>
-      <c r="E16" s="246">
+      <c r="E16" s="241">
         <v>391</v>
       </c>
-      <c r="F16" s="246">
+      <c r="F16" s="241">
         <v>391</v>
       </c>
-      <c r="G16" s="246">
+      <c r="G16" s="241">
         <v>302</v>
       </c>
-      <c r="H16" s="255">
+      <c r="H16" s="250">
         <v>302</v>
       </c>
-      <c r="I16" s="152">
+      <c r="I16" s="147">
         <v>302</v>
       </c>
       <c r="J16" s="55">
@@ -5821,43 +6579,43 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="247">
+      <c r="C17" s="242">
         <v>-1621</v>
       </c>
-      <c r="D17" s="247">
+      <c r="D17" s="242">
         <v>-1701</v>
       </c>
-      <c r="E17" s="247">
+      <c r="E17" s="242">
         <v>-1787</v>
       </c>
-      <c r="F17" s="247">
+      <c r="F17" s="242">
         <v>-1428</v>
       </c>
-      <c r="G17" s="246">
+      <c r="G17" s="241">
         <v>-1520</v>
       </c>
-      <c r="H17" s="247">
+      <c r="H17" s="242">
         <v>-1713</v>
       </c>
-      <c r="I17" s="200">
+      <c r="I17" s="195">
         <v>-878</v>
       </c>
       <c r="J17" s="55">
         <f t="shared" si="1"/>
         <v>-921.9</v>
       </c>
-      <c r="K17" s="153">
+      <c r="K17" s="148">
         <f t="shared" ref="K17:N17" si="4">J17*$P$10+J17</f>
         <v>-967.995</v>
       </c>
-      <c r="L17" s="153">
+      <c r="L17" s="148">
         <f t="shared" si="4"/>
         <v>-1016.39475</v>
       </c>
-      <c r="M17" s="153">
+      <c r="M17" s="148">
         <f t="shared" si="4"/>
         <v>-1067.2144875000001</v>
       </c>
@@ -5867,7 +6625,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="224" t="s">
+      <c r="B18" s="219" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="61">
@@ -5886,19 +6644,19 @@
         <f t="shared" si="5"/>
         <v>3360</v>
       </c>
-      <c r="G18" s="201">
+      <c r="G18" s="196">
         <f t="shared" si="5"/>
         <v>3268</v>
       </c>
-      <c r="H18" s="201">
+      <c r="H18" s="196">
         <f t="shared" si="5"/>
         <v>3317</v>
       </c>
-      <c r="I18" s="201">
+      <c r="I18" s="196">
         <f t="shared" si="5"/>
         <v>2884</v>
       </c>
-      <c r="J18" s="131">
+      <c r="J18" s="126">
         <f t="shared" ref="J18:N18" si="6">J17+J15-J14</f>
         <v>3028.2</v>
       </c>
@@ -5920,7 +6678,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="225" t="s">
+      <c r="B19" s="220" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="58">
@@ -5951,7 +6709,7 @@
         <f t="shared" si="7"/>
         <v>2582</v>
       </c>
-      <c r="J19" s="132">
+      <c r="J19" s="127">
         <f t="shared" ref="J19:N19" si="8">J15-J14+J17-J16</f>
         <v>2711.0999999999995</v>
       </c>
@@ -5973,21 +6731,21 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="223"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="114"/>
-      <c r="J20" s="133"/>
+      <c r="H20" s="109"/>
+      <c r="J20" s="128"/>
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
       <c r="M20" s="61"/>
       <c r="N20" s="62"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="217" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="48">
@@ -6018,7 +6776,7 @@
         <f t="shared" si="9"/>
         <v>-1.9749430523917995</v>
       </c>
-      <c r="J21" s="134">
+      <c r="J21" s="129">
         <f t="shared" ref="J21:N21" si="10">J13/J17</f>
         <v>-1.8650118451025053</v>
       </c>
@@ -6040,7 +6798,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="217" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="20">
@@ -6071,7 +6829,7 @@
         <f t="shared" si="11"/>
         <v>0.93648334624322227</v>
       </c>
-      <c r="J22" s="135">
+      <c r="J22" s="130">
         <f t="shared" ref="J22:N22" si="12">J10/J19</f>
         <v>0.88061967467079794</v>
       </c>
@@ -6093,7 +6851,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="221" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="21">
@@ -6124,7 +6882,7 @@
         <f t="shared" si="13"/>
         <v>0.83841886269070731</v>
       </c>
-      <c r="J23" s="136">
+      <c r="J23" s="131">
         <f t="shared" ref="J23:N23" si="14">J10/J18</f>
         <v>0.7884049930651873</v>
       </c>
@@ -6256,19 +7014,19 @@
   <sheetData>
     <row r="1" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="288"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="299"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="285"/>
+      <c r="K2" s="285"/>
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="286"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -6279,19 +7037,19 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="289"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="302"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="288"/>
+      <c r="L3" s="288"/>
+      <c r="M3" s="288"/>
+      <c r="N3" s="289"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -6302,19 +7060,19 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="289"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="302"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="288"/>
+      <c r="N4" s="289"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -6325,19 +7083,19 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="289"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="302"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="288"/>
+      <c r="G5" s="288"/>
+      <c r="H5" s="288"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="288"/>
+      <c r="K5" s="288"/>
+      <c r="L5" s="288"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="289"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -6348,19 +7106,19 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="289"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="302"/>
+      <c r="B6" s="282"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="288"/>
+      <c r="I6" s="288"/>
+      <c r="J6" s="288"/>
+      <c r="K6" s="288"/>
+      <c r="L6" s="288"/>
+      <c r="M6" s="288"/>
+      <c r="N6" s="289"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -6371,19 +7129,19 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="2:22" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="289"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="304"/>
+      <c r="B7" s="282"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="291"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -6394,7 +7152,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="2:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="289"/>
+      <c r="B8" s="282"/>
       <c r="C8" s="33">
         <v>2014</v>
       </c>
@@ -6416,22 +7174,22 @@
       <c r="I8" s="33">
         <v>2020</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="99">
         <v>2021</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="100">
         <v>2022</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="100">
         <v>2023</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="100">
         <v>2024</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="101">
         <v>2025</v>
       </c>
-      <c r="O8" s="230"/>
+      <c r="O8" s="225"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -6441,25 +7199,25 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="108"/>
+      <c r="I9" s="103"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="290" t="s">
+      <c r="N9" s="115"/>
+      <c r="O9" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="291"/>
+      <c r="P9" s="296"/>
       <c r="Q9" s="15">
         <v>1400</v>
       </c>
@@ -6473,33 +7231,33 @@
       <c r="B10" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110">
+      <c r="C10" s="113"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105">
         <f>$Q$9*'1.Income statement'!I27</f>
         <v>33600</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="104">
         <f>$Q$9*'1.Income statement'!J27</f>
         <v>30800</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="104">
         <f>$Q$9*'1.Income statement'!K27</f>
         <v>28000</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="104">
         <f>$Q$9*'1.Income statement'!L27</f>
         <v>25200</v>
       </c>
-      <c r="M10" s="109">
+      <c r="M10" s="104">
         <f>$Q$9*'1.Income statement'!M27</f>
         <v>22400</v>
       </c>
-      <c r="N10" s="121">
+      <c r="N10" s="116">
         <f>$Q$9*'1.Income statement'!N27</f>
         <v>21000</v>
       </c>
@@ -6516,51 +7274,51 @@
       <c r="B11" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="104">
         <f>'3.retornos capital'!C15-'3.retornos capital'!C14</f>
         <v>4218</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="104">
         <f>'3.retornos capital'!D15-'3.retornos capital'!D14</f>
         <v>4449</v>
       </c>
-      <c r="E11" s="109">
+      <c r="E11" s="104">
         <f>'3.retornos capital'!E15-'3.retornos capital'!E14</f>
         <v>4735</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="104">
         <f>'3.retornos capital'!F15-'3.retornos capital'!F14</f>
         <v>4788</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="104">
         <f>'3.retornos capital'!G15-'3.retornos capital'!G14</f>
         <v>4788</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="104">
         <f>'3.retornos capital'!H15-'3.retornos capital'!H14</f>
         <v>5030</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="105">
         <f>'3.retornos capital'!I15-'3.retornos capital'!I14</f>
         <v>3762</v>
       </c>
-      <c r="J11" s="234">
+      <c r="J11" s="229">
         <v>5000</v>
       </c>
-      <c r="K11" s="234">
+      <c r="K11" s="229">
         <v>5200</v>
       </c>
-      <c r="L11" s="234">
+      <c r="L11" s="229">
         <v>5500</v>
       </c>
-      <c r="M11" s="234">
+      <c r="M11" s="229">
         <v>5800</v>
       </c>
-      <c r="N11" s="231">
+      <c r="N11" s="226">
         <v>6200</v>
       </c>
-      <c r="O11" s="292"/>
-      <c r="P11" s="292"/>
+      <c r="O11" s="297"/>
+      <c r="P11" s="297"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -6569,30 +7327,30 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C12" s="132">
         <f>C11/'1.Income statement'!C12</f>
         <v>2.0269101393560787</v>
       </c>
-      <c r="D12" s="137">
+      <c r="D12" s="132">
         <f>D11/'1.Income statement'!D12</f>
         <v>2.0022502250225021</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="132">
         <f>E11/'1.Income statement'!E12</f>
         <v>2.0089096308867203</v>
       </c>
-      <c r="F12" s="137">
+      <c r="F12" s="132">
         <f>F11/'1.Income statement'!F12</f>
         <v>1.9925093632958801</v>
       </c>
-      <c r="G12" s="137">
+      <c r="G12" s="132">
         <f>G11/'1.Income statement'!G12</f>
         <v>2.2218097447795824</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="132">
         <f>H11/'1.Income statement'!H12</f>
         <v>1.9458413926499032</v>
       </c>
@@ -6600,23 +7358,23 @@
         <f>I11/'1.Income statement'!I12</f>
         <v>1.3364120781527531</v>
       </c>
-      <c r="J12" s="229">
+      <c r="J12" s="224">
         <f>J11/'1.Income statement'!J12</f>
         <v>1.7829774153816751</v>
       </c>
-      <c r="K12" s="137">
+      <c r="K12" s="132">
         <f>K11/'1.Income statement'!K12</f>
         <v>1.7659966780923255</v>
       </c>
-      <c r="L12" s="137">
+      <c r="L12" s="132">
         <f>L11/'1.Income statement'!L12</f>
         <v>1.7789343826937345</v>
       </c>
-      <c r="M12" s="137">
+      <c r="M12" s="132">
         <f>M11/'1.Income statement'!M12</f>
         <v>1.7866353973374303</v>
       </c>
-      <c r="N12" s="122">
+      <c r="N12" s="117">
         <f>N11/'1.Income statement'!N12</f>
         <v>1.8189063158443461</v>
       </c>
@@ -6630,59 +7388,59 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="137">
+      <c r="C13" s="132">
         <f>C11/'3.retornos capital'!C17</f>
         <v>-2.6020974706971005</v>
       </c>
-      <c r="D13" s="137">
+      <c r="D13" s="132">
         <f>D11/'3.retornos capital'!D17</f>
         <v>-2.615520282186949</v>
       </c>
-      <c r="E13" s="137">
+      <c r="E13" s="132">
         <f>E11/'3.retornos capital'!E17</f>
         <v>-2.6496922216004477</v>
       </c>
-      <c r="F13" s="137">
+      <c r="F13" s="132">
         <f>F11/'3.retornos capital'!F17</f>
         <v>-3.3529411764705883</v>
       </c>
-      <c r="G13" s="137">
+      <c r="G13" s="132">
         <f>G11/'3.retornos capital'!G17</f>
         <v>-3.15</v>
       </c>
-      <c r="H13" s="137">
+      <c r="H13" s="132">
         <f>H11/'3.retornos capital'!H17</f>
         <v>-2.9363689433741973</v>
       </c>
-      <c r="I13" s="137">
+      <c r="I13" s="132">
         <f>I11/'3.retornos capital'!I17</f>
         <v>-4.284738041002278</v>
       </c>
-      <c r="J13" s="229">
+      <c r="J13" s="224">
         <f>J11/'3.retornos capital'!J17</f>
         <v>-5.4235817333767224</v>
       </c>
-      <c r="K13" s="137">
+      <c r="K13" s="132">
         <f>K11/'3.retornos capital'!K17</f>
         <v>-5.3719285740112293</v>
       </c>
-      <c r="L13" s="137">
+      <c r="L13" s="132">
         <f>L11/'3.retornos capital'!L17</f>
         <v>-5.4112833620992236</v>
       </c>
-      <c r="M13" s="137">
+      <c r="M13" s="132">
         <f>M11/'3.retornos capital'!M17</f>
         <v>-5.4347088311992193</v>
       </c>
-      <c r="N13" s="137">
+      <c r="N13" s="132">
         <f>N11/'3.retornos capital'!N17</f>
         <v>-5.5328727017134911</v>
       </c>
-      <c r="O13" s="232"/>
-      <c r="P13" s="205"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="200"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -6691,7 +7449,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="2:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="108" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="46"/>
@@ -6724,8 +7482,8 @@
         <f t="shared" si="0"/>
         <v>27200</v>
       </c>
-      <c r="O14" s="305"/>
-      <c r="P14" s="305"/>
+      <c r="O14" s="292"/>
+      <c r="P14" s="292"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -6737,51 +7495,51 @@
       <c r="B15" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="104">
         <f>'1.Income statement'!C12</f>
         <v>2081</v>
       </c>
-      <c r="D15" s="109">
+      <c r="D15" s="104">
         <f>'1.Income statement'!D12</f>
         <v>2222</v>
       </c>
-      <c r="E15" s="109">
+      <c r="E15" s="104">
         <f>'1.Income statement'!E12</f>
         <v>2357</v>
       </c>
-      <c r="F15" s="109">
+      <c r="F15" s="104">
         <f>'1.Income statement'!F12</f>
         <v>2403</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="104">
         <f>'1.Income statement'!G12</f>
         <v>2155</v>
       </c>
-      <c r="H15" s="228">
+      <c r="H15" s="223">
         <f>'1.Income statement'!H12</f>
         <v>2585</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="106">
         <f>'1.Income statement'!I12</f>
         <v>2815</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="104">
         <f>'1.Income statement'!J12</f>
         <v>2804.2979999999998</v>
       </c>
-      <c r="K15" s="109">
+      <c r="K15" s="104">
         <f>'1.Income statement'!K12</f>
         <v>2944.5129000000002</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="104">
         <f>'1.Income statement'!L12</f>
         <v>3091.7385450000002</v>
       </c>
-      <c r="M15" s="109">
+      <c r="M15" s="104">
         <f>'1.Income statement'!M12</f>
         <v>3246.3254722500001</v>
       </c>
-      <c r="N15" s="123">
+      <c r="N15" s="118">
         <f>'1.Income statement'!N12</f>
         <v>3408.6417458625001</v>
       </c>
@@ -6798,51 +7556,51 @@
       <c r="B16" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="104">
         <f>'1.Income statement'!C15</f>
         <v>1830</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="104">
         <f>'1.Income statement'!D15</f>
         <v>1953</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="104">
         <f>'1.Income statement'!E15</f>
         <v>2060</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="104">
         <f>'1.Income statement'!F15</f>
         <v>2080</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="104">
         <f>'1.Income statement'!G15</f>
         <v>1810</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="104">
         <f>'1.Income statement'!H15</f>
         <v>2216</v>
       </c>
-      <c r="I16" s="110">
+      <c r="I16" s="105">
         <f>'1.Income statement'!I15</f>
         <v>2418</v>
       </c>
-      <c r="J16" s="109">
+      <c r="J16" s="104">
         <f>'1.Income statement'!J15</f>
         <v>2387.4479999999999</v>
       </c>
-      <c r="K16" s="109">
+      <c r="K16" s="104">
         <f>'1.Income statement'!K15</f>
         <v>2506.8204000000001</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="104">
         <f>'1.Income statement'!L15</f>
         <v>2632.1614199999999</v>
       </c>
-      <c r="M16" s="109">
+      <c r="M16" s="104">
         <f>'1.Income statement'!M15</f>
         <v>2763.769491</v>
       </c>
-      <c r="N16" s="121">
+      <c r="N16" s="116">
         <f>'1.Income statement'!N15</f>
         <v>2901.9579655500002</v>
       </c>
@@ -6859,51 +7617,51 @@
       <c r="B17" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="104">
         <f>'1.Income statement'!C24</f>
         <v>1070</v>
       </c>
-      <c r="D17" s="109">
+      <c r="D17" s="104">
         <f>'1.Income statement'!D24</f>
         <v>1161</v>
       </c>
-      <c r="E17" s="109">
+      <c r="E17" s="104">
         <f>'1.Income statement'!E24</f>
         <v>1242</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="104">
         <f>'1.Income statement'!F24</f>
         <v>1281</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="104">
         <f>'1.Income statement'!G24</f>
         <v>1337</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="104">
         <f>'1.Income statement'!H24</f>
         <v>1617</v>
       </c>
-      <c r="I17" s="110">
+      <c r="I17" s="105">
         <f>'1.Income statement'!I24</f>
         <v>1734</v>
       </c>
-      <c r="J17" s="109">
+      <c r="J17" s="104">
         <f>'1.Income statement'!J24</f>
         <v>1719.3544199999997</v>
       </c>
-      <c r="K17" s="109">
+      <c r="K17" s="104">
         <f>'1.Income statement'!K24</f>
         <v>1805.3221410000001</v>
       </c>
-      <c r="L17" s="109">
+      <c r="L17" s="104">
         <f>'1.Income statement'!L24</f>
         <v>1895.5882480499999</v>
       </c>
-      <c r="M17" s="109">
+      <c r="M17" s="104">
         <f>'1.Income statement'!M24</f>
         <v>1990.3676604524999</v>
       </c>
-      <c r="N17" s="121">
+      <c r="N17" s="116">
         <f>'1.Income statement'!N24</f>
         <v>2089.8860434751255</v>
       </c>
@@ -6920,51 +7678,51 @@
       <c r="B18" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="104">
         <f>'2.Flujos de caja'!C15</f>
         <v>883</v>
       </c>
-      <c r="D18" s="109">
+      <c r="D18" s="104">
         <f>'2.Flujos de caja'!D15</f>
         <v>949</v>
       </c>
-      <c r="E18" s="109">
+      <c r="E18" s="104">
         <f>'2.Flujos de caja'!E15</f>
         <v>1050</v>
       </c>
-      <c r="F18" s="109">
+      <c r="F18" s="104">
         <f>'2.Flujos de caja'!F15</f>
         <v>1051</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="104">
         <f>'2.Flujos de caja'!G15</f>
         <v>1160</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="104">
         <f>'2.Flujos de caja'!H15</f>
         <v>1490</v>
       </c>
-      <c r="I18" s="110">
+      <c r="I18" s="105">
         <f>'2.Flujos de caja'!I15</f>
         <v>1673</v>
       </c>
-      <c r="J18" s="109">
+      <c r="J18" s="104">
         <f>'2.Flujos de caja'!J15</f>
         <v>1655.3044199999995</v>
       </c>
-      <c r="K18" s="109">
+      <c r="K18" s="104">
         <f>'2.Flujos de caja'!K15</f>
         <v>1738.069641</v>
       </c>
-      <c r="L18" s="109">
+      <c r="L18" s="104">
         <f>'2.Flujos de caja'!L15</f>
         <v>1824.9731230500001</v>
       </c>
-      <c r="M18" s="109">
+      <c r="M18" s="104">
         <f>'2.Flujos de caja'!M15</f>
         <v>1916.2217792025003</v>
       </c>
-      <c r="N18" s="121">
+      <c r="N18" s="116">
         <f>'2.Flujos de caja'!N15</f>
         <v>2012.0328681626256</v>
       </c>
@@ -6979,18 +7737,18 @@
     </row>
     <row r="19" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="64"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="121"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="116"/>
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="14"/>
@@ -7001,25 +7759,25 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="128"/>
-      <c r="C20" s="129" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="306"/>
-      <c r="P20" s="306"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="294"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -7031,11 +7789,11 @@
       <c r="B21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="117">
+      <c r="C21" s="112">
         <f>(L21/$Q$9)^(1/3)-1</f>
         <v>0.10629765195482155</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="112">
         <f>(N21/$Q$9)^(1/5)-1</f>
         <v>0.12366062632077846</v>
       </c>
@@ -7045,34 +7803,34 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="256">
+      <c r="I21" s="251">
         <f>IF(--I11&lt;0,(I17*$Q$21-I11),IF(--I11&gt;0,I17*$Q$21))/'1.Income statement'!I27</f>
         <v>1300.5</v>
       </c>
-      <c r="J21" s="257">
+      <c r="J21" s="252">
         <f>IF(--J11&lt;0,(J17*$Q$21-J11),IF(--J11&gt;0,J17*$Q$21))/'1.Income statement'!J27</f>
         <v>1406.7445254545453</v>
       </c>
-      <c r="K21" s="257">
+      <c r="K21" s="252">
         <f>IF(--K11&lt;0,(K17*$Q$21-K11),IF(--K11&gt;0,K17*$Q$21))/'1.Income statement'!K27</f>
         <v>1624.7899269000002</v>
       </c>
-      <c r="L21" s="257">
+      <c r="L21" s="252">
         <f>IF(--L11&lt;0,(L17*$Q$21-L11),IF(--L11&gt;0,L17*$Q$21))/'1.Income statement'!L27</f>
         <v>1895.5882480499999</v>
       </c>
-      <c r="M21" s="257">
+      <c r="M21" s="252">
         <f>IF(--M11&lt;0,(M17*$Q$21-M11),IF(--M11&gt;0,M17*$Q$21))/'1.Income statement'!M27</f>
         <v>2239.1636180090622</v>
       </c>
-      <c r="N21" s="258">
+      <c r="N21" s="253">
         <f>IF(--N11&lt;0,(N17*$Q$21-N11),IF(--N11&gt;0,N17*$Q$21))/'1.Income statement'!N27</f>
         <v>2507.8632521701506</v>
       </c>
-      <c r="O21" s="130" t="s">
+      <c r="O21" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="P21" s="130"/>
+      <c r="P21" s="125"/>
       <c r="Q21" s="9">
         <v>18</v>
       </c>
@@ -7086,11 +7844,11 @@
       <c r="B22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="107">
+      <c r="C22" s="102">
         <f t="shared" ref="C22:C24" si="1">(L22/$Q$9)^(1/3)-1</f>
         <v>9.238605063507177E-2</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="102">
         <f t="shared" ref="D22:D24" si="2">(N22/$Q$9)^(1/5)-1</f>
         <v>0.11516121473690433</v>
       </c>
@@ -7100,34 +7858,34 @@
       </c>
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
-      <c r="I22" s="256">
+      <c r="I22" s="251">
         <f>IF(--I11&lt;0,(I18*$Q$22-I11),IF(--I11&gt;0,I18*$Q$22))/'1.Income statement'!I27</f>
         <v>1254.75</v>
       </c>
-      <c r="J22" s="257">
+      <c r="J22" s="252">
         <f>IF(--J11&lt;0,(J18*$Q$22-J11),IF(--J11&gt;0,J18*$Q$22))/'1.Income statement'!J27</f>
         <v>1354.3399799999997</v>
       </c>
-      <c r="K22" s="257">
+      <c r="K22" s="252">
         <f>IF(--K11&lt;0,(K18*$Q$22-K11),IF(--K11&gt;0,K18*$Q$22))/'1.Income statement'!K27</f>
         <v>1564.2626769000001</v>
       </c>
-      <c r="L22" s="257">
+      <c r="L22" s="252">
         <f>IF(--L11&lt;0,(L18*$Q$22-L11),IF(--L11&gt;0,L18*$Q$22))/'1.Income statement'!L27</f>
         <v>1824.9731230500001</v>
       </c>
-      <c r="M22" s="257">
+      <c r="M22" s="252">
         <f>IF(--M11&lt;0,(M18*$Q$22-M11),IF(--M11&gt;0,M18*$Q$22))/'1.Income statement'!M27</f>
         <v>2155.7495016028129</v>
       </c>
-      <c r="N22" s="257">
+      <c r="N22" s="252">
         <f>IF(--N11&lt;0,(N18*$Q$22-N11),IF(--N11&gt;0,N18*$Q$22))/'1.Income statement'!N27</f>
         <v>2414.4394417951507</v>
       </c>
-      <c r="O22" s="294" t="s">
+      <c r="O22" s="298" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="295"/>
+      <c r="P22" s="299"/>
       <c r="Q22" s="9">
         <v>18</v>
       </c>
@@ -7141,11 +7899,11 @@
       <c r="B23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="107">
+      <c r="C23" s="102">
         <f t="shared" si="1"/>
         <v>0.1445561373964015</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="102">
         <f t="shared" si="2"/>
         <v>0.14606610764680328</v>
       </c>
@@ -7155,34 +7913,34 @@
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
-      <c r="I23" s="259">
+      <c r="I23" s="254">
         <f>((I15*$Q$23)-I11)/'1.Income statement'!I27</f>
         <v>1485.3333333333333</v>
       </c>
-      <c r="J23" s="260">
+      <c r="J23" s="255">
         <f>((J15*$Q$23)-J11)/'1.Income statement'!J27</f>
         <v>1557.2805454545453</v>
       </c>
-      <c r="K23" s="260">
+      <c r="K23" s="255">
         <f>((K15*$Q$23)-K11)/'1.Income statement'!K27</f>
         <v>1801.15903</v>
       </c>
-      <c r="L23" s="260">
+      <c r="L23" s="255">
         <f>((L15*$Q$23)-L11)/'1.Income statement'!L27</f>
         <v>2099.1299794444444</v>
       </c>
-      <c r="M23" s="260">
+      <c r="M23" s="255">
         <f>((M15*$Q$23)-M11)/'1.Income statement'!M27</f>
         <v>2478.0347882187502</v>
       </c>
-      <c r="N23" s="261">
+      <c r="N23" s="256">
         <f>((N15*$Q$23)-N11)/'1.Income statement'!N27</f>
         <v>2768.0656294716669</v>
       </c>
-      <c r="O23" s="296" t="s">
+      <c r="O23" s="283" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="296"/>
+      <c r="P23" s="283"/>
       <c r="Q23" s="9">
         <v>14</v>
       </c>
@@ -7196,48 +7954,48 @@
       <c r="B24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="107">
+      <c r="C24" s="102">
         <f t="shared" si="1"/>
         <v>0.10480235929204862</v>
       </c>
-      <c r="D24" s="107">
+      <c r="D24" s="102">
         <f t="shared" si="2"/>
         <v>0.12193131981646799</v>
       </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126" t="s">
+      <c r="E24" s="120"/>
+      <c r="F24" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="262">
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="257">
         <f>((I16*$Q$24)-I11)/'1.Income statement'!I27</f>
         <v>1354.5</v>
       </c>
-      <c r="J24" s="263">
+      <c r="J24" s="258">
         <f>((J16*$Q$24)-J11)/'1.Income statement'!J27</f>
         <v>1400.5327272727272</v>
       </c>
-      <c r="K24" s="263">
+      <c r="K24" s="258">
         <f>((K16*$Q$24)-K11)/'1.Income statement'!K27</f>
         <v>1620.1153000000002</v>
       </c>
-      <c r="L24" s="263">
+      <c r="L24" s="258">
         <f>((L16*$Q$24)-L11)/'1.Income statement'!L27</f>
         <v>1887.9122944444446</v>
       </c>
-      <c r="M24" s="263">
+      <c r="M24" s="258">
         <f>((M16*$Q$24)-M11)/'1.Income statement'!M27</f>
         <v>2228.5338978125001</v>
       </c>
-      <c r="N24" s="264">
+      <c r="N24" s="259">
         <f>((N16*$Q$24)-N11)/'1.Income statement'!N27</f>
         <v>2488.6246322166671</v>
       </c>
-      <c r="O24" s="296" t="s">
+      <c r="O24" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="296"/>
+      <c r="P24" s="283"/>
       <c r="Q24" s="9">
         <v>15</v>
       </c>
@@ -7459,6 +8217,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="C2:N7"/>
@@ -7468,11 +8231,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O22:P22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q12:Q13" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -7501,305 +8259,305 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
     </row>
     <row r="4" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="170"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="165"/>
     </row>
     <row r="5" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="167"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="170"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="165"/>
     </row>
     <row r="6" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="307" t="s">
+      <c r="B6" s="300" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="307"/>
-      <c r="D6" s="307"/>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
-      <c r="G6" s="307"/>
-      <c r="H6" s="307"/>
-      <c r="I6" s="307"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
     </row>
     <row r="7" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-    </row>
-    <row r="9" spans="2:9" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="163" t="s">
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+    </row>
+    <row r="9" spans="2:9" s="150" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-    </row>
-    <row r="10" spans="2:9" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="161" t="s">
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+    </row>
+    <row r="10" spans="2:9" s="150" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-    </row>
-    <row r="11" spans="2:9" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="161" t="s">
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+    </row>
+    <row r="11" spans="2:9" s="150" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-    </row>
-    <row r="12" spans="2:9" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="161" t="s">
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+    </row>
+    <row r="12" spans="2:9" s="150" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-    </row>
-    <row r="13" spans="2:9" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="161" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+    </row>
+    <row r="13" spans="2:9" s="150" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-    </row>
-    <row r="14" spans="2:9" s="155" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="161" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+    </row>
+    <row r="14" spans="2:9" s="150" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-    </row>
-    <row r="15" spans="2:9" s="155" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="308" t="s">
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+    </row>
+    <row r="15" spans="2:9" s="150" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="301" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-    </row>
-    <row r="16" spans="2:9" s="155" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="309"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-    </row>
-    <row r="17" spans="2:9" s="155" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="176" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+    </row>
+    <row r="16" spans="2:9" s="150" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="302"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+    </row>
+    <row r="17" spans="2:9" s="150" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-    </row>
-    <row r="18" spans="2:9" s="155" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="173" t="s">
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+    </row>
+    <row r="18" spans="2:9" s="150" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
     </row>
     <row r="19" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
     </row>
     <row r="20" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="310" t="s">
+      <c r="B20" s="303" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="308"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
     </row>
     <row r="22" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="309"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
     </row>
     <row r="23" spans="2:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
     </row>
     <row r="24" spans="2:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
     </row>
     <row r="25" spans="2:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
     </row>
     <row r="26" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="165"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
     </row>
     <row r="27" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B27" s="174" t="s">
+      <c r="B27" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="164"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
     </row>
     <row r="28" spans="2:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
     </row>
     <row r="29" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="311"/>
-      <c r="C29" s="311"/>
-      <c r="D29" s="311"/>
-      <c r="E29" s="311"/>
-      <c r="F29" s="311"/>
+      <c r="B29" s="304"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="304"/>
+      <c r="E29" s="304"/>
+      <c r="F29" s="304"/>
     </row>
   </sheetData>
   <mergeCells count="4">
